--- a/数据整理/stocks/A股/深证主板/002756-永兴材料.xlsx
+++ b/数据整理/stocks/A股/深证主板/002756-永兴材料.xlsx
@@ -451,883 +451,1193 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6665</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1606</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9127</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8369</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5249</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4080</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3572</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3362</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3152</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2193</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>162202</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>泰达宏利周期混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>91.04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>090010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成中证红利指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003739</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华鑫弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>32.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>34.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>94.38</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1.47</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>161907</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>万家中证红利指数(LOF)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>94.92</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1.54</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009490</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰康科技创新一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005669</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源公用事业行业股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000390</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华商优势行业混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>87.79</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000689</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>310358</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>申万菱信新经济混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>83.73</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>630002</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华商盛世成长混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001681</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>新华积极价值灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>34.26</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007801</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>大成中证红利指数C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001959</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华商乐享互联灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>89.48</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003834</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华夏能源革新股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>92.63</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009147</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>建信新能源行业股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002943</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>广发多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>515080</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>招商中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>98.80</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>515180</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>易方达中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>515890</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>博时中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>98.45</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003670</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中融物联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>003739</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>新华鑫弘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>32.20</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>60.25</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009931</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>淳厚欣享一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009939</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>淳厚欣享一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>166301</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华商新趋势优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>84.78</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>007306</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华泰柏瑞基本面智选混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>007307</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>华泰柏瑞基本面智选混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>008480</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>永赢股息优选混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>008481</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>永赢股息优选混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1337,7 +1647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1358,15 +1668,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004223</t>
+          <t>003834</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金信多策略精选灵活配置混合</t>
+          <t>华夏能源革新股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>162.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0651</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004557</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>北信瑞丰鼎丰灵活配置混合</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31.31</t>
+          <t>55.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6635</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1434,25 +1774,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166301</t>
+          <t>000390</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商新趋势优选灵活配置混合</t>
+          <t>华商优势行业混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>23.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9962</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006233</t>
+          <t>519005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合A</t>
+          <t>海富通股票混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>30.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9295</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004332</t>
+          <t>630002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恒生前海沪港深新兴产业精选混合</t>
+          <t>华商盛世成长混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.13</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8634</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1518,25 +1888,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161907</t>
+          <t>010611</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家中证红利指数(LOF)</t>
+          <t>万家战略发展产业混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>95.02</t>
+          <t>32.84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5878</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>162202</t>
+          <t>166301</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰达宏利周期混合</t>
+          <t>华商新趋势优选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.84</t>
+          <t>10.73</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4592</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006132</t>
+          <t>090010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家智造优势混合A</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3863</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006133</t>
+          <t>007689</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>万家智造优势混合C</t>
+          <t>国投瑞银新能源混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3684</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000390</t>
+          <t>005669</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华商优势行业混合</t>
+          <t>前海开源公用事业行业股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3352</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000689</t>
+          <t>630008</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源新经济灵活配置混合</t>
+          <t>华商策略精选混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>82.22</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2231</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006736</t>
+          <t>515180</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国投瑞银先进制造混合</t>
+          <t>易方达中证红利ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.28</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1714,25 +2154,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010611</t>
+          <t>001704</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>万家战略发展产业混合A</t>
+          <t>国投瑞银进宝灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>56.03</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010612</t>
+          <t>001959</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>万家战略发展产业混合C</t>
+          <t>华商乐享互联灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>56.03</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007277</t>
+          <t>519156</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恒生前海消费升级混合</t>
+          <t>新华行业轮换灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>89.66</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>010612</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>万家战略发展产业混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>74.57</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1878</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001261</t>
+          <t>006736</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中融新机遇灵活配置混合</t>
+          <t>国投瑞银先进制造混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001267</t>
+          <t>007690</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>泰达宏利蓝筹价值混合</t>
+          <t>国投瑞银新能源混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>512190</t>
+          <t>590003</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+          <t>中邮核心优势灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>99.02</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001294</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>新华战略新兴产业灵活配置混合</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+          <t>56.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>515180</t>
+          <t>162202</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>易方达中证红利ETF</t>
+          <t>泰达宏利周期混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>515890</t>
+          <t>519158</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>博时中证红利ETF</t>
+          <t>新华趋势领航混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>98.94</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>090010</t>
+          <t>009025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>海富通科技创新混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>007801</t>
+          <t>000689</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>大成中证红利指数C</t>
+          <t>前海开源新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>519005</t>
+          <t>009651</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海富通股票混合</t>
+          <t>海富通成长甄选混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>121010</t>
+          <t>007277</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
+          <t>恒生前海消费升级混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>57.03</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001681</t>
+          <t>001294</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>新华积极价值灵活配置混合</t>
+          <t>新华战略新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29.22</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>519099</t>
+          <t>004332</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>新华灵活主题混合</t>
+          <t>恒生前海沪港深新兴产业精选混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>84.58</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>7</v>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>001704</t>
+          <t>006233</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>国投瑞银进宝灵活配置混合</t>
+          <t>万家汽车新趋势混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>7</v>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>519156</t>
+          <t>121010</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>新华行业轮换灵活配置混合A</t>
+          <t>国投瑞银瑞源灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>9</v>
+          <t>57.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>519157</t>
+          <t>001267</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>新华行业轮换灵活配置混合C</t>
+          <t>泰达宏利蓝筹价值混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>9</v>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -2246,25 +2876,35 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>519158</t>
+          <t>161222</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>新华趋势领航混合</t>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
+          <t>63.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2274,25 +2914,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>001959</t>
+          <t>001261</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华商乐享互联灵活配置混合</t>
+          <t>中融新机遇灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>590003</t>
+          <t>009652</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中邮核心优势灵活配置混合</t>
+          <t>海富通成长甄选混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>79.04</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>7</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>630002</t>
+          <t>006132</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华商盛世成长混合</t>
+          <t>万家智造优势混合A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>6</v>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>630008</t>
+          <t>009024</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华商策略精选混合</t>
+          <t>海富通科技创新混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>76.31</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>7</v>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>161222</t>
+          <t>512190</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>63.81</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>9</v>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -2414,25 +3104,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>009025</t>
+          <t>001681</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海富通科技创新混合A</t>
+          <t>新华积极价值灵活配置混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>009024</t>
+          <t>519099</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海富通科技创新混合C</t>
+          <t>新华灵活主题混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>8</v>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>005669</t>
+          <t>007801</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>前海开源公用事业行业股票</t>
+          <t>大成中证红利指数C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>81.72</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>9.47</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>2</v>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>007689</t>
+          <t>161907</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>国投瑞银新能源混合A</t>
+          <t>万家中证红利指数(LOF)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>8</v>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>007690</t>
+          <t>006133</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>国投瑞银新能源混合C</t>
+          <t>万家智造优势混合C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>8</v>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>003834</t>
+          <t>515890</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华夏能源革新股票</t>
+          <t>博时中证红利ETF</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>88.97</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>5</v>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -2582,26 +3332,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>004557</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>56.74</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>1</v>
+          <t>31.31</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -2610,26 +3370,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>009651</t>
+          <t>519157</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>海富通成长甄选混合A</t>
+          <t>新华行业轮换灵活配置混合C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>8</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -2638,25 +3408,35 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>009652</t>
+          <t>004223</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海富通成长甄选混合C</t>
+          <t>金信多策略精选灵活配置混合</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002756-永兴材料.xlsx
+++ b/数据整理/stocks/A股/深证主板/002756-永兴材料.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3443,4 +3444,1692 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1298</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1055</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9574</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8125</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>57.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8100</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7956</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6622</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5943</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5562</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4709</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4092</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3737</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3473</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3243</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3046</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2857</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2680</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2615</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>44.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003739</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>新华鑫弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>38.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002756-永兴材料.xlsx
+++ b/数据整理/stocks/A股/深证主板/002756-永兴材料.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5132,4 +5133,3442 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>228.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.5949</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9178</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7488</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6275</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>63.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2408</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0730</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0017</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>43.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8031</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7342</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2597</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0934</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0868</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9797</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9406</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8353</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7385</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7156</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6688</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6479</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>29.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>47.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6417</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6206</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5643</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012541</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>39.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5513</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5197</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4387</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4233</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4218</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3799</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3677</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3574</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2857</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2702</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2670</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2542</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2358</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2251</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1711</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>73.58</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>47.88</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.12</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>68.51</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>62.44</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002756-永兴材料.xlsx
+++ b/数据整理/stocks/A股/深证主板/002756-永兴材料.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8571,4 +8572,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>89</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002756-永兴材料.xlsx
+++ b/数据整理/stocks/A股/深证主板/002756-永兴材料.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8580,7 +8581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8591,17 +8592,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8611,14 +8632,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>89</v>
-      </c>
-      <c r="D2" t="n">
-        <v>50.12</v>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5127</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -8627,14 +8670,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.54</v>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5461</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -8643,14 +8708,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>46</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.41</v>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3253</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -8659,13 +8746,5614 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4114</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2841</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2620</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012541</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2363</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>69.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1682</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1368</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.1342</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5443</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4084</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>30.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3607</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1925</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1669</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1359</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1158</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0906</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0062</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0020</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9753</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9635</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9529</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9255</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>56.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9189</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8588</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>24.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8488</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7389</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005352</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6538</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6039</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5242</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5077</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5068</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4884</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4696</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4600</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4495</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4439</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4426</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4419</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4161</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4066</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安研究精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3998</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3752</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3624</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3482</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3324</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3241</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3199</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3195</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2967</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2919</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2661</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2593</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2425</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2402</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2401</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2107</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005353</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1583</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>65.00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008640</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008641</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>72.18</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>148</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>89</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>30</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>11.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002756-永兴材料.xlsx
+++ b/数据整理/stocks/A股/深证主板/002756-永兴材料.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14252,7 +14253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14263,17 +14264,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14283,14 +14304,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>148</v>
-      </c>
-      <c r="D2" t="n">
-        <v>65.55</v>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>187.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.2976</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -14299,14 +14342,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>89</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50.12</v>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.2047</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -14315,14 +14380,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>43</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.54</v>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7562</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -14331,14 +14418,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>46</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.41</v>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3915</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -14347,13 +14456,5896 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>112.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.0184</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.9818</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6367</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3709</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9872</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7204</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6478</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5196</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1836</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9988</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012541</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9736</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9258</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8941</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7305</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6782</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5913</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5796</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5790</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5778</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5714</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5062</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4818</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>68.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4742</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4629</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4274</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4252</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2725</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2674</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2653</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2590</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2423</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2404</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2288</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2251</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2023</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013323</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012556</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛景气优选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>47.88</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>34.36</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009419</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011938</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006109</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006110</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011939</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011277</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008336</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>41.57</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>64.13</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>003182</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>22.56</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>013324</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>003183</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>22.56</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>008337</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>41.57</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>009420</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>003739</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>新华鑫弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>015407</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合E</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>156</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>148</v>
+      </c>
+      <c r="D3" t="n">
+        <v>65.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>89</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>30</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>11.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002756-永兴材料.xlsx
+++ b/数据整理/stocks/A股/深证主板/002756-永兴材料.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="D2" t="n">
-        <v>96.40000000000001</v>
+        <v>83.34999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>156</v>
+        <v>263</v>
       </c>
       <c r="D3" t="n">
-        <v>65.81</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D4" t="n">
-        <v>65.55</v>
+        <v>65.81</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="D5" t="n">
-        <v>50.12</v>
+        <v>65.55</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D6" t="n">
-        <v>13.54</v>
+        <v>50.12</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
-        <v>16.41</v>
+        <v>13.54</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>46</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>30</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>11.2</v>
       </c>
     </row>
@@ -600,6 +617,7808 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H205"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>167.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7315</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5267</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信澳新能源精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1675</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.8203</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.7348</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.4227</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.2766</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>115.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.8105</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.5212</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>48.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.4665</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>63.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.3622</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5966</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000527</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>45.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5494</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010357</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>44.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5058</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3325</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3253</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2933</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1428</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0829</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0771</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012688</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长安成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0603</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0084</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001053</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方创新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9377</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8767</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8717</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8499</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7263</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6996</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6926</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6775</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012314</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方行业领先混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>19.89</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6743</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>18.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6668</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6397</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014007</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6106</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>70.15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5584</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5358</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5325</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5244</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5171</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5039</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012975</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4997</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4785</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4488</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014261</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>上投摩根沃享远见一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4323</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4248</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4140</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013160</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3664</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3627</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3558</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3406</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3280</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3246</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3203</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3191</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3061</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2955</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2790</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010358</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2532</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银华乐享混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012976</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2448</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005742</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方成安优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2387</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013161</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008264</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2085</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014488</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012689</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长安成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013188</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>60.66</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010335</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华宝竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>信澳转型创新股票</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>013104</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001192</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014727</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>易方达成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013103</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011939</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>013943</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>014376</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>东吴新能源汽车股票A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>015440</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>信澳智选先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011938</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>015687</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>银华乐享混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>014728</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>易方达成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011277</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>015320</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006590</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>南方新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008265</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011707</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>46.20</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011448</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>014395</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中银证券成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>015392</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>上银新能源产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>013942</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>013358</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>上银高质量优选9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>015608</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>信澳转型创新股票C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>014262</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>上投摩根沃享远见一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>014377</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>东吴新能源汽车股票C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>011449</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>015391</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>上银新能源产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>014989</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>015441</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>信澳智选先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>006110</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>35.02</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>014489</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>015585</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>014829</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>015507</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>014396</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>中银证券成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>015508</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>015321</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>013312</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>工银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>014830</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>015772</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>013359</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>上银高质量优选9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>012799</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>011391</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>46.20</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>014990</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>006109</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>35.02</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>013892</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>016920</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>016815</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10638,7 +18457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16613,7 +24432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22284,7 +30103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25722,7 +33541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27410,7 +35229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29214,7 +37033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002756-永兴材料.xlsx
+++ b/数据整理/stocks/A股/深证主板/002756-永兴材料.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="D2" t="n">
-        <v>83.34999999999999</v>
+        <v>33.01</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="D3" t="n">
-        <v>96.40000000000001</v>
+        <v>83.34999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>156</v>
+        <v>263</v>
       </c>
       <c r="D4" t="n">
-        <v>65.81</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D5" t="n">
-        <v>65.55</v>
+        <v>65.81</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="D6" t="n">
-        <v>50.12</v>
+        <v>65.55</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D7" t="n">
-        <v>13.54</v>
+        <v>50.12</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" t="n">
-        <v>16.41</v>
+        <v>13.54</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1226 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>46</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>30</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>11.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6665</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1606</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9127</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8369</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5249</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4080</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3572</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3362</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3152</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2193</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003739</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华鑫弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>32.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>34.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1830,3292 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8931</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7693</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3785</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8975</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8305</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014562</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达品质动能三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8107</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5983</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5496</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1570</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0758</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0208</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0047</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9296</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8712</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7523</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7491</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>35.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>62.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7476</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015285</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银产业转型一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6112</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5929</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5075</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014007</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4906</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4898</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4567</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4382</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3298</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3128</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014563</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达品质动能三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013160</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2708</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2532</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013161</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014488</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015286</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国投瑞银产业转型一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014727</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013104</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011939</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014728</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013103</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011938</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011277</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013943</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015392</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上银新能源产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>970042</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015391</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>上银新能源产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013942</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014489</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004360</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004359</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015772</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014692</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005373</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>016815</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014691</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013892</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005374</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8418,7 +12917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18457,7 +22956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24432,7 +28931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30103,7 +34602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -33541,7 +38040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -35229,7 +39728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -37031,1200 +41530,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003834</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏能源革新股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>103.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.63</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.6665</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>630002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华商盛世成长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>23.93</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1606</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000390</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商优势行业混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>22.26</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.79</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9127</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009147</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>建信新能源行业股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>22.93</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8369</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>310358</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>申万菱信新经济混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.24</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>83.73</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5249</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009931</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>淳厚欣享一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>16.79</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4080</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005669</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源公用事业行业股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3572</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>090010</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成中证红利指数A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>22.87</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3362</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>166301</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华商新趋势优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>84.78</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3152</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008480</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>永赢股息优选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2714</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>515180</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>易方达中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>13.97</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2193</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001959</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华商乐享互联灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.48</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1940</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>60.25</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1399</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009490</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泰康科技创新一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1302</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009939</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>淳厚欣享一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1052</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>162202</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>泰达宏利周期混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0963</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003739</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>新华鑫弘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>32.20</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0814</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001681</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>新华积极价值灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>34.26</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0813</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>000689</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>前海开源新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0740</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>515080</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>98.80</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0668</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002943</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>广发多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0634</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>007306</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华泰柏瑞基本面智选混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0363</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0256</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>003670</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中融物联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0189</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>008481</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>永赢股息优选混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>007307</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华泰柏瑞基本面智选混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>007801</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>大成中证红利指数C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>161907</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>万家中证红利指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.92</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>515890</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>博时中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>98.45</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>